--- a/lib_tc_bak/com.aislend.Checkout.xlsx
+++ b/lib_tc_bak/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>
@@ -697,18 +697,12 @@
     <t>"6000"</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
     <t>"068202322"</t>
   </si>
   <si>
     <t>Enter address details with incorrect zip code and verify time slot</t>
   </si>
   <si>
-    <t>VerifyNoElement</t>
-  </si>
-  <si>
     <t>US_ID_07</t>
   </si>
   <si>
@@ -718,12 +712,6 @@
     <t>verify time slot</t>
   </si>
   <si>
-    <t>Text Entered successfully: 068202322</t>
-  </si>
-  <si>
-    <t>Time Slot should not appear on the screen</t>
-  </si>
-  <si>
     <t>US_ID_08</t>
   </si>
   <si>
@@ -787,150 +775,154 @@
     <t>//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a</t>
   </si>
   <si>
-    <t>Element not verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeleteProductfromViewCart succesfully </t>
+    <t>exist</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: College Inn Fat Free &amp; Lower Sodium Chicken Broth - 32oz</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Allow Substitute</t>
+  </si>
+  <si>
+    <t>VerifySummaryViewCart: null</t>
+  </si>
+  <si>
+    <t>Wait: 5000</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Checkout</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>SetText: ChandnaUserAddress</t>
+  </si>
+  <si>
+    <t>SetText: ChandnaUserCity</t>
+  </si>
+  <si>
+    <t>SetText: 068202322</t>
+  </si>
+  <si>
+    <t>SetText: 1234567890</t>
+  </si>
+  <si>
+    <t>SetText: 06820</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: all</t>
+  </si>
+  <si>
+    <t>"11 Sep"</t>
+  </si>
+  <si>
+    <t>SelectSlot: 11 Sep</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Please select delivery slot.</t>
+  </si>
+  <si>
+    <t>//textarea[normalize-space(@placeholder) = 'Delivery Instructions']</t>
+  </si>
+  <si>
+    <t>SetText: user chandna</t>
+  </si>
+  <si>
+    <t>VerifyText: Your card's security code is incomplete</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: exist</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
   </si>
   <si>
     <t>action click failed</t>
   </si>
   <si>
-    <t>exist</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Add product successfully</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Do Not Allow Substitute for product: null</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Allow Substitute for product: null</t>
-  </si>
-  <si>
-    <t>Select slot Fail: 2Sep for product: 06:00 PM-07:00 PM</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>text mismatch: Your card's security code is incomplete</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+    <t>element not visible
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Command duration or timeout: 25 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17800_878}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 90c707c1cf12f41c381b5a6a3677976b</t>
+  </si>
+  <si>
+    <t>action Select slot failed: 11 Sep  06:00 PM-07:00 PM</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;div class="slot" data-bind="style: {
+											background: time.is_available ==0 || $parents[2].checkTime(time.slot, key) === false ? 'rgb(255, 160, 160)':'',
+										},
+										css: time.is_available == 0 || $parents[2].checkTime(time.slot, key) === false ? 'disabled':'',
+										click: $parents[2].isSelected.bind($data, $parents[2], $parents[1]),
+										attr:{'slot-group':data.slot_group},
+										event: {load: $parents[2].getSlotStorage(time)}"&gt;...&lt;/div&gt; is not clickable at point (660, 71). Other element would receive the click: &lt;div class="header content checkout__header"&gt;...&lt;/div&gt;
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 58 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Command duration or timeout: 36 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5108_9704}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 7dcd4d51e17a926636e51b41671e2c2a</t>
   </si>
   <si>
     <t>element not visible
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
+Command duration or timeout: 23 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740</t>
-  </si>
-  <si>
-    <t>"4 Sep"</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 30 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir8564_16081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 06c4f7d7d3541e1fcd4d749faf568d0f
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir8564_16081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 06c4f7d7d3541e1fcd4d749faf568d0f
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>Select Slot successfully: 4 Sep  06:00 PM-07:00 PM</t>
-  </si>
-  <si>
-    <t>text verified: Your card's security code is incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move and Add product Fail </t>
-  </si>
-  <si>
-    <t>action Move and add product failed: exist</t>
-  </si>
-  <si>
-    <t>bound must be positive</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5108_9704}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 7dcd4d51e17a926636e51b41671e2c2a</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1595,7 +1587,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1608,7 +1600,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>215</v>
@@ -1616,18 +1608,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1650,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
@@ -1720,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="180" r="2" spans="1:15">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1728,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1745,7 +1737,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>107</v>
@@ -1784,7 +1776,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>107</v>
@@ -1823,7 +1815,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>107</v>
@@ -1862,7 +1854,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>107</v>
@@ -1874,7 +1866,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1907,7 +1899,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -1919,7 +1911,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1940,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>107</v>
@@ -1987,7 +1979,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>107</v>
@@ -2028,7 +2020,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>107</v>
@@ -2040,7 +2032,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="180" r="10" spans="1:15">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2056,7 +2048,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2065,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>107</v>
@@ -2104,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>107</v>
@@ -2147,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>107</v>
@@ -2186,10 +2178,10 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>108</v>
@@ -2218,7 +2210,7 @@
         <v>85</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="4"/>
@@ -2227,19 +2219,19 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="15" spans="1:15">
+    <row ht="120" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2268,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>107</v>
@@ -2300,7 +2292,7 @@
         <v>85</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2309,7 +2301,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>107</v>
@@ -2380,7 +2372,7 @@
         <v>85</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2389,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>107</v>
@@ -2401,7 +2393,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="19" spans="1:15">
+    <row ht="135" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2422,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>107</v>
@@ -2462,7 +2454,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2471,7 +2463,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>107</v>
@@ -2483,7 +2475,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="21" spans="1:15">
+    <row ht="135" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>107</v>
@@ -2544,7 +2536,7 @@
         <v>85</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2553,7 +2545,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>107</v>
@@ -2631,7 +2623,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>107</v>
@@ -2670,7 +2662,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>107</v>
@@ -2709,7 +2701,7 @@
         <v>98</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>107</v>
@@ -2721,7 +2713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="27" spans="1:15">
+    <row ht="60" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2750,7 +2742,7 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>107</v>
@@ -2762,7 +2754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="28" spans="1:15">
+    <row ht="60" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -2791,7 +2783,7 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>107</v>
@@ -2803,7 +2795,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="29" spans="1:15">
+    <row ht="60" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -2832,7 +2824,7 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>107</v>
@@ -2844,7 +2836,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="30" spans="1:15">
+    <row ht="60" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2873,7 +2865,7 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>107</v>
@@ -2885,7 +2877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="31" spans="1:15">
+    <row ht="60" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2914,7 +2906,7 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>107</v>
@@ -2926,7 +2918,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="32" spans="1:15">
+    <row ht="60" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +2947,7 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>107</v>
@@ -2967,7 +2959,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="33" spans="1:15">
+    <row ht="45" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -2994,7 +2986,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>107</v>
@@ -3006,7 +2998,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="34" spans="1:15">
+    <row ht="15" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3023,7 @@
         <v>201</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>107</v>
@@ -3070,7 +3062,7 @@
         <v>151</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>107</v>
@@ -3107,7 +3099,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>107</v>
@@ -3144,7 +3136,7 @@
         <v>201</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>107</v>
@@ -3183,7 +3175,7 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>107</v>
@@ -3224,7 +3216,7 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>107</v>
@@ -3265,7 +3257,7 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>107</v>
@@ -3306,7 +3298,7 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>107</v>
@@ -3338,7 +3330,7 @@
         <v>185</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -3347,7 +3339,7 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>107</v>
@@ -3388,7 +3380,7 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>107</v>
@@ -3417,7 +3409,7 @@
         <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>174</v>
@@ -3429,13 +3421,13 @@
         <v>175</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -3466,7 +3458,7 @@
         <v>201</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>107</v>
@@ -3480,38 +3472,40 @@
     </row>
     <row customHeight="1" ht="41.25" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" s="12"/>
+        <v>185</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -3522,31 +3516,27 @@
         <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>107</v>
@@ -3563,27 +3553,29 @@
         <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="12"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>107</v>
@@ -3597,16 +3589,16 @@
     </row>
     <row customHeight="1" ht="41.25" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>29</v>
@@ -3614,15 +3606,19 @@
       <c r="F49" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
         <v>180</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>107</v>
@@ -3636,36 +3632,32 @@
     </row>
     <row customHeight="1" ht="41.25" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>107</v>
@@ -3679,13 +3671,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>28</v>
@@ -3694,17 +3686,17 @@
         <v>29</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>107</v>
@@ -3718,32 +3710,34 @@
     </row>
     <row customHeight="1" ht="41.25" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>107</v>
@@ -3757,34 +3751,32 @@
     </row>
     <row customHeight="1" ht="41.25" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>107</v>
@@ -3798,32 +3790,34 @@
     </row>
     <row customHeight="1" ht="41.25" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>107</v>
@@ -3837,31 +3831,29 @@
     </row>
     <row customHeight="1" ht="41.25" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>248</v>
@@ -3878,13 +3870,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>28</v>
@@ -3893,17 +3885,17 @@
         <v>29</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>107</v>
@@ -3917,32 +3909,28 @@
     </row>
     <row customHeight="1" ht="41.25" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>107</v>
@@ -3956,28 +3944,32 @@
     </row>
     <row customHeight="1" ht="41.25" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="L58" s="4" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>107</v>
@@ -3986,45 +3978,6 @@
         <v>108</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="59" spans="1:15">
-      <c r="A59" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O59" s="4" t="s">
         <v>152</v>
       </c>
     </row>
